--- a/acuracies results.xlsx
+++ b/acuracies results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bea1fe2eca9ed01e/Desktop/emg_deployment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bea1fe2eca9ed01e/Documents/GitHub/emg_DVA435_CDT406/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{E2EDE623-9868-41CD-8EA0-11D1DB76D71F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8B3CF66-591B-44B6-8431-FE3E2B2C754E}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="8_{E2EDE623-9868-41CD-8EA0-11D1DB76D71F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C00199A-4B26-49D1-86E8-ADA551DDE9AA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{84C4EB14-F7EB-46A0-B59A-FC1D08475BD9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="22">
   <si>
     <t>model</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>6 finger f+e 4 seeds (1745,3770,1786,2706)</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
 </sst>
 </file>
@@ -159,17 +162,17 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -208,6 +211,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -507,597 +514,683 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{721A9649-41F4-4F10-A638-53B4A52885EB}">
-  <dimension ref="B1:I28"/>
+  <dimension ref="B1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="B5:G5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A10" sqref="A10"/>
+      <selection pane="topRight" activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.44140625" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" style="1" customWidth="1"/>
     <col min="7" max="7" width="109.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.77734375" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>0.9</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>0.8</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>0.84</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>0.86</v>
       </c>
       <c r="G3" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="1">
         <f>AVERAGE(C3:F3)</f>
         <v>0.85</v>
+      </c>
+      <c r="I3" s="4">
+        <f>_xlfn.CONFIDENCE.T(0.95,_xlfn.STDEV.P(C3:F3),4)</f>
+        <v>1.2274652711430345E-3</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>0.85</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>0.92</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>0.82</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>0.84</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="1">
         <f>AVERAGE(C4:F4)</f>
         <v>0.85749999999999993</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" ref="I4:I7" si="0">_xlfn.CONFIDENCE.T(0.95,_xlfn.STDEV.P(C4:F4),4)</f>
+        <v>1.2823024573322913E-3</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>0.76</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>0.82</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>0.92</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>0.92</v>
       </c>
       <c r="G5" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="1">
         <f>AVERAGE(C5:F5)</f>
         <v>0.85499999999999998</v>
       </c>
-      <c r="I5" s="3"/>
+      <c r="I5" s="4">
+        <f t="shared" si="0"/>
+        <v>2.3277071727933999E-3</v>
+      </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>0.8</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>0.76</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>0.84</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>0.96</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="1">
         <f>AVERAGE(C6:F6)</f>
         <v>0.84</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="0"/>
+        <v>2.5476018216880215E-3</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>0.84</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>0.8</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>0.86</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>0.88</v>
       </c>
       <c r="G7" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="1">
         <f>AVERAGE(C7:F7)</f>
         <v>0.84499999999999997</v>
       </c>
+      <c r="I7" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0070280409660369E-3</v>
+      </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="7"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>0.12</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>0.2</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>0.12</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>0.12</v>
       </c>
       <c r="G10" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="1">
         <f>AVERAGE(C10:F10)</f>
         <v>0.14000000000000001</v>
+      </c>
+      <c r="I10" s="4">
+        <f>_xlfn.CONFIDENCE.T(0.95,_xlfn.STDEV.P(C10:F10),4)</f>
+        <v>1.1793104863679674E-3</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>0.57999999999999996</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>0.64</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>0.56000000000000005</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="3">
-        <f t="shared" ref="H11:H14" si="0">AVERAGE(C11:F11)</f>
+      <c r="H11" s="1">
+        <f t="shared" ref="H11:H14" si="1">AVERAGE(C11:F11)</f>
         <v>0.58500000000000008</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" ref="I11:I14" si="2">_xlfn.CONFIDENCE.T(0.95,_xlfn.STDEV.P(C11:F11),4)</f>
+        <v>1.1161993605541395E-3</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>0.48</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>0.46</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>0.46</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>0.54</v>
       </c>
       <c r="G12" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="1">
         <f>AVERAGE(C12:F12)</f>
         <v>0.48499999999999999</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="2"/>
+        <v>1.1161993605541402E-3</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>0.68</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>0.62</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>0.57999999999999996</v>
       </c>
       <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="3">
-        <f t="shared" si="0"/>
+      <c r="H13" s="1">
+        <f t="shared" si="1"/>
         <v>0.61499999999999999</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="2"/>
+        <v>1.3933009811703295E-3</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>0.6</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>0.48</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>0.66</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>0.62</v>
       </c>
       <c r="G14" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="3">
-        <f t="shared" si="0"/>
+      <c r="H14" s="1">
+        <f t="shared" si="1"/>
         <v>0.59000000000000008</v>
       </c>
+      <c r="I14" s="4">
+        <f t="shared" si="2"/>
+        <v>2.2837249368554439E-3</v>
+      </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="7"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>0.06</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <v>0.02</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <v>0.06</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
         <v>0.04</v>
       </c>
       <c r="G17" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="1">
         <f>AVERAGE(C17:F17)</f>
         <v>4.5000000000000005E-2</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I17" s="4">
+        <f>_xlfn.CONFIDENCE.T(0.95,_xlfn.STDEV.P(C17:F17),4)</f>
+        <v>5.645519140550022E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>0.63</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>0.51</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>0.56999999999999995</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="3">
-        <f t="shared" ref="H18:H21" si="1">AVERAGE(C18:F18)</f>
+      <c r="H18" s="1">
+        <f t="shared" ref="H18:H21" si="3">AVERAGE(C18:F18)</f>
         <v>0.57250000000000001</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I18" s="4">
+        <f t="shared" ref="I18:I21" si="4">_xlfn.CONFIDENCE.T(0.95,_xlfn.STDEV.P(C18:F18),4)</f>
+        <v>1.4518576605506415E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1">
         <v>0.54</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <v>0.57999999999999996</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <v>0.61</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="1">
         <v>0.59</v>
       </c>
       <c r="G19" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="1">
         <f>AVERAGE(C19:F19)</f>
         <v>0.57999999999999996</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I19" s="4">
+        <f t="shared" si="4"/>
+        <v>8.6794901689622348E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <v>0.61</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <v>0.53</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <v>0.62</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="1">
         <v>0.62</v>
       </c>
       <c r="G20" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="3">
-        <f t="shared" si="1"/>
+      <c r="H20" s="1">
+        <f t="shared" si="3"/>
         <v>0.59500000000000008</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I20" s="4">
+        <f t="shared" si="4"/>
+        <v>1.2851238082839443E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <v>0.63</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <v>0.56999999999999995</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <v>0.59</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="1">
         <v>0.56000000000000005</v>
       </c>
       <c r="G21" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="3">
-        <f t="shared" si="1"/>
+      <c r="H21" s="1">
+        <f t="shared" si="3"/>
         <v>0.58750000000000002</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="4" t="s">
+      <c r="I21" s="4">
+        <v>8.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B22" s="2"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B23" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="1">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="1">
         <v>0.01</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="1">
         <v>0.01</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="1">
         <v>0.18</v>
       </c>
       <c r="G24" t="s">
         <v>17</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="1">
         <f>AVERAGE(C24:F24)</f>
         <v>7.0749999999999993E-2</v>
       </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I24" s="4">
+        <f>_xlfn.CONFIDENCE.T(0.95,_xlfn.STDEV.P(C24:F24),4)</f>
+        <v>2.374948887338029E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="1">
         <v>0.8</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="1">
         <v>0.85</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="1">
         <v>0.75</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="1">
         <v>0.83</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
       </c>
-      <c r="H25" s="3">
-        <f t="shared" ref="H25:H28" si="2">AVERAGE(C25:F25)</f>
+      <c r="H25" s="1">
+        <f t="shared" ref="H25:H28" si="5">AVERAGE(C25:F25)</f>
         <v>0.8075</v>
       </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I25" s="4">
+        <f t="shared" ref="I25:I28" si="6">_xlfn.CONFIDENCE.T(0.95,_xlfn.STDEV.P(C25:F25),4)</f>
+        <v>1.2823024573322898E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="1">
         <v>0.71</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="1">
         <v>0.76</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="1">
         <v>0.76</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="1">
         <v>0.9</v>
       </c>
       <c r="G26" t="s">
         <v>12</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="1">
         <f>AVERAGE(C26:F26)</f>
         <v>0.78249999999999997</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I26" s="4">
+        <f t="shared" si="6"/>
+        <v>2.4117668340560621E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="1">
         <v>0.76</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="1">
         <v>0.73</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="1">
         <v>0.83</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="1">
         <v>0.9</v>
       </c>
       <c r="G27" t="s">
         <v>14</v>
       </c>
-      <c r="H27" s="3">
-        <f t="shared" si="2"/>
+      <c r="H27" s="1">
+        <f t="shared" si="5"/>
         <v>0.80499999999999994</v>
       </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I27" s="4">
+        <f t="shared" si="6"/>
+        <v>2.2388788471369063E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="1">
         <v>0.73</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="1">
         <v>0.71</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="1">
         <v>0.75</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="1">
         <v>0.81</v>
       </c>
       <c r="G28" t="s">
         <v>16</v>
       </c>
-      <c r="H28" s="3">
-        <f t="shared" si="2"/>
+      <c r="H28" s="1">
+        <f t="shared" si="5"/>
         <v>0.75</v>
       </c>
+      <c r="I28" s="4">
+        <f t="shared" si="6"/>
+        <v>1.273800910844012E-3</v>
+      </c>
+      <c r="J28" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1107,11 +1200,31 @@
     <mergeCell ref="B23:H23"/>
   </mergeCells>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="1" priority="5">
       <formula>"max($B$3:$H$28"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H7 I5">
+  <conditionalFormatting sqref="H3:H7">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10:H14">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17:H21">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1121,7 +1234,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10:H14">
+  <conditionalFormatting sqref="H24:H28">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
